--- a/new nba data collection exp.xlsx
+++ b/new nba data collection exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19713\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72258A7-AE3A-4C04-A989-E040BED66036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE0263D-B44E-4829-80F8-0302CB76D35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1922DF31-4A09-4A1D-B6B7-B606B8D8D313}"/>
+    <workbookView xWindow="850" yWindow="110" windowWidth="11930" windowHeight="11260" xr2:uid="{1922DF31-4A09-4A1D-B6B7-B606B8D8D313}"/>
   </bookViews>
   <sheets>
     <sheet name="23 seasons" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="106">
   <si>
     <t>2018-19</t>
   </si>
@@ -334,6 +334,27 @@
   </si>
   <si>
     <t>Phil Jackson</t>
+  </si>
+  <si>
+    <t>P.J. Carlesimo</t>
+  </si>
+  <si>
+    <t>Bob Hill</t>
+  </si>
+  <si>
+    <t>Nate McMillan</t>
+  </si>
+  <si>
+    <t>Rudy Tomjanovich</t>
+  </si>
+  <si>
+    <t>Jim O'Brien</t>
+  </si>
+  <si>
+    <t>Rick Pitino</t>
+  </si>
+  <si>
+    <t>Paul Westphal</t>
   </si>
 </sst>
 </file>
@@ -724,10 +745,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97B3484-E261-455F-8A6E-7A0E41FDCAE9}">
   <dimension ref="A1:X751"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A670" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection activeCell="A522" sqref="A522"/>
-      <selection pane="topRight" activeCell="U377" sqref="U377"/>
+      <selection pane="topRight" activeCell="S690" sqref="S690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23525,7 +23546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>24</v>
       </c>
@@ -23584,7 +23605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>25</v>
       </c>
@@ -23643,7 +23664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>26</v>
       </c>
@@ -23702,7 +23723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>27</v>
       </c>
@@ -23761,7 +23782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>28</v>
       </c>
@@ -23820,7 +23841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>29</v>
       </c>
@@ -23879,7 +23900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>30</v>
       </c>
@@ -23938,7 +23959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>1</v>
       </c>
@@ -23997,7 +24018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>2</v>
       </c>
@@ -24055,8 +24076,20 @@
       <c r="R393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S393" t="s">
+        <v>96</v>
+      </c>
+      <c r="T393" s="8">
+        <v>24751934</v>
+      </c>
+      <c r="U393" s="8">
+        <v>18388430</v>
+      </c>
+      <c r="V393" s="8">
+        <v>18077903</v>
+      </c>
+    </row>
+    <row r="394" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>81</v>
       </c>
@@ -24115,7 +24148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>5</v>
       </c>
@@ -24174,7 +24207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>6</v>
       </c>
@@ -24233,7 +24266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>7</v>
       </c>
@@ -24292,7 +24325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>8</v>
       </c>
@@ -24351,7 +24384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>9</v>
       </c>
@@ -24410,7 +24443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>10</v>
       </c>
@@ -24469,7 +24502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>11</v>
       </c>
@@ -24528,7 +24561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>12</v>
       </c>
@@ -24587,7 +24620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>13</v>
       </c>
@@ -24646,7 +24679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A404" s="5" t="s">
         <v>14</v>
       </c>
@@ -24704,8 +24737,20 @@
       <c r="R404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S404" t="s">
+        <v>98</v>
+      </c>
+      <c r="T404" s="8">
+        <v>21262500</v>
+      </c>
+      <c r="U404" s="8">
+        <v>15106000</v>
+      </c>
+      <c r="V404" s="8">
+        <v>14148596</v>
+      </c>
+    </row>
+    <row r="405" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>84</v>
       </c>
@@ -24764,7 +24809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>16</v>
       </c>
@@ -24823,7 +24868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>17</v>
       </c>
@@ -24882,7 +24927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>18</v>
       </c>
@@ -24941,7 +24986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>83</v>
       </c>
@@ -25000,7 +25045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>85</v>
       </c>
@@ -25059,7 +25104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>20</v>
       </c>
@@ -25118,7 +25163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>86</v>
       </c>
@@ -25176,8 +25221,20 @@
       <c r="R412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S412" t="s">
+        <v>94</v>
+      </c>
+      <c r="T412" s="8">
+        <v>7647500</v>
+      </c>
+      <c r="U412" s="8">
+        <v>6350000</v>
+      </c>
+      <c r="V412" s="8">
+        <v>6200000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>22</v>
       </c>
@@ -25236,7 +25293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>23</v>
       </c>
@@ -25295,7 +25352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>24</v>
       </c>
@@ -25354,7 +25411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>25</v>
       </c>
@@ -25413,7 +25470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>26</v>
       </c>
@@ -25472,7 +25529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>27</v>
       </c>
@@ -25531,7 +25588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>28</v>
       </c>
@@ -25590,7 +25647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>29</v>
       </c>
@@ -25649,7 +25706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>30</v>
       </c>
@@ -25708,7 +25765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>1</v>
       </c>
@@ -25767,7 +25824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A423" s="5" t="s">
         <v>2</v>
       </c>
@@ -25825,8 +25882,20 @@
       <c r="R423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S423" t="s">
+        <v>96</v>
+      </c>
+      <c r="T423" s="8">
+        <v>23750000</v>
+      </c>
+      <c r="U423" s="8">
+        <v>16360094</v>
+      </c>
+      <c r="V423" s="8">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>81</v>
       </c>
@@ -25885,7 +25954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>5</v>
       </c>
@@ -25944,7 +26013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>6</v>
       </c>
@@ -26003,7 +26072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>7</v>
       </c>
@@ -26062,7 +26131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>8</v>
       </c>
@@ -26121,7 +26190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>9</v>
       </c>
@@ -26180,7 +26249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>10</v>
       </c>
@@ -26239,7 +26308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>11</v>
       </c>
@@ -26298,7 +26367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>12</v>
       </c>
@@ -26357,7 +26426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>13</v>
       </c>
@@ -26416,7 +26485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>14</v>
       </c>
@@ -26474,8 +26543,20 @@
       <c r="R434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S434" t="s">
+        <v>98</v>
+      </c>
+      <c r="T434" s="8">
+        <v>19490625</v>
+      </c>
+      <c r="U434" s="8">
+        <v>13735000</v>
+      </c>
+      <c r="V434" s="8">
+        <v>13248596</v>
+      </c>
+    </row>
+    <row r="435" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>84</v>
       </c>
@@ -26534,7 +26615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>16</v>
       </c>
@@ -26593,7 +26674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>17</v>
       </c>
@@ -26652,7 +26733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>18</v>
       </c>
@@ -26711,7 +26792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>83</v>
       </c>
@@ -26770,7 +26851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>85</v>
       </c>
@@ -26829,7 +26910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>20</v>
       </c>
@@ -26888,7 +26969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>22</v>
       </c>
@@ -26947,7 +27028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>23</v>
       </c>
@@ -27006,7 +27087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>24</v>
       </c>
@@ -27065,7 +27146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>25</v>
       </c>
@@ -27124,7 +27205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>26</v>
       </c>
@@ -27183,7 +27264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>27</v>
       </c>
@@ -27242,7 +27323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>86</v>
       </c>
@@ -27300,8 +27381,20 @@
       <c r="R448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S448" t="s">
+        <v>99</v>
+      </c>
+      <c r="T448" s="8">
+        <v>6500000</v>
+      </c>
+      <c r="U448" s="8">
+        <v>6500000</v>
+      </c>
+      <c r="V448" s="8">
+        <v>6016965</v>
+      </c>
+    </row>
+    <row r="449" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>28</v>
       </c>
@@ -27360,7 +27453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>29</v>
       </c>
@@ -27419,7 +27512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>30</v>
       </c>
@@ -27478,7 +27571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>1</v>
       </c>
@@ -27537,7 +27630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>2</v>
       </c>
@@ -27595,8 +27688,20 @@
       <c r="R453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S453" t="s">
+        <v>96</v>
+      </c>
+      <c r="T453" s="8">
+        <v>15101625</v>
+      </c>
+      <c r="U453" s="8">
+        <v>11775000</v>
+      </c>
+      <c r="V453" s="8">
+        <v>11666666</v>
+      </c>
+    </row>
+    <row r="454" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>81</v>
       </c>
@@ -27655,7 +27760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>5</v>
       </c>
@@ -27714,7 +27819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>6</v>
       </c>
@@ -27773,7 +27878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>7</v>
       </c>
@@ -27832,7 +27937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>8</v>
       </c>
@@ -27891,7 +27996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>9</v>
       </c>
@@ -27950,7 +28055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>10</v>
       </c>
@@ -28009,7 +28114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>11</v>
       </c>
@@ -28068,7 +28173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>12</v>
       </c>
@@ -28127,7 +28232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>13</v>
       </c>
@@ -28186,7 +28291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>14</v>
       </c>
@@ -28244,8 +28349,20 @@
       <c r="R464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S464" t="s">
+        <v>98</v>
+      </c>
+      <c r="T464" s="8">
+        <v>17718750</v>
+      </c>
+      <c r="U464" s="8">
+        <v>14848080</v>
+      </c>
+      <c r="V464" s="8">
+        <v>12348596</v>
+      </c>
+    </row>
+    <row r="465" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>84</v>
       </c>
@@ -28304,7 +28421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>16</v>
       </c>
@@ -28363,7 +28480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>17</v>
       </c>
@@ -28422,7 +28539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>18</v>
       </c>
@@ -28481,7 +28598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>83</v>
       </c>
@@ -28540,7 +28657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>85</v>
       </c>
@@ -28599,7 +28716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>20</v>
       </c>
@@ -28658,7 +28775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>22</v>
       </c>
@@ -28717,7 +28834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>23</v>
       </c>
@@ -28776,7 +28893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>24</v>
       </c>
@@ -28835,7 +28952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>25</v>
       </c>
@@ -28894,7 +29011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>26</v>
       </c>
@@ -28953,7 +29070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A477" s="5" t="s">
         <v>27</v>
       </c>
@@ -29012,7 +29129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>86</v>
       </c>
@@ -29070,8 +29187,20 @@
       <c r="R478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S478" t="s">
+        <v>100</v>
+      </c>
+      <c r="T478" s="8">
+        <v>14611570</v>
+      </c>
+      <c r="U478" s="8">
+        <v>9350649</v>
+      </c>
+      <c r="V478" s="8">
+        <v>6596990</v>
+      </c>
+    </row>
+    <row r="479" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>28</v>
       </c>
@@ -29130,7 +29259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>29</v>
       </c>
@@ -29189,7 +29318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>30</v>
       </c>
@@ -29248,7 +29377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>1</v>
       </c>
@@ -29307,7 +29436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>2</v>
       </c>
@@ -29365,8 +29494,20 @@
       <c r="R483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S483" t="s">
+        <v>96</v>
+      </c>
+      <c r="T483" s="8">
+        <v>13843156</v>
+      </c>
+      <c r="U483" s="8">
+        <v>10623288</v>
+      </c>
+      <c r="V483" s="8">
+        <v>5909800</v>
+      </c>
+    </row>
+    <row r="484" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>81</v>
       </c>
@@ -29425,7 +29566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>5</v>
       </c>
@@ -29484,7 +29625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>6</v>
       </c>
@@ -29543,7 +29684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>7</v>
       </c>
@@ -29602,7 +29743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>8</v>
       </c>
@@ -29661,7 +29802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>9</v>
       </c>
@@ -29720,7 +29861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
         <v>10</v>
       </c>
@@ -29779,7 +29920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>11</v>
       </c>
@@ -29838,7 +29979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
         <v>12</v>
       </c>
@@ -29897,7 +30038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
         <v>13</v>
       </c>
@@ -29956,7 +30097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>14</v>
       </c>
@@ -30014,8 +30155,20 @@
       <c r="R494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S494" t="s">
+        <v>98</v>
+      </c>
+      <c r="T494" s="8">
+        <v>15946875</v>
+      </c>
+      <c r="U494" s="8">
+        <v>14336220</v>
+      </c>
+      <c r="V494" s="8">
+        <v>11465333</v>
+      </c>
+    </row>
+    <row r="495" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>84</v>
       </c>
@@ -30074,7 +30227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A496" s="5" t="s">
         <v>16</v>
       </c>
@@ -30133,7 +30286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>17</v>
       </c>
@@ -30192,7 +30345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>18</v>
       </c>
@@ -30251,7 +30404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>83</v>
       </c>
@@ -30310,7 +30463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>85</v>
       </c>
@@ -30369,7 +30522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>20</v>
       </c>
@@ -30428,7 +30581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>22</v>
       </c>
@@ -30487,7 +30640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>23</v>
       </c>
@@ -30546,7 +30699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
         <v>24</v>
       </c>
@@ -30605,7 +30758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
         <v>25</v>
       </c>
@@ -30664,7 +30817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
         <v>26</v>
       </c>
@@ -30723,7 +30876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
         <v>27</v>
       </c>
@@ -30782,7 +30935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
         <v>86</v>
       </c>
@@ -30840,8 +30993,20 @@
       <c r="R508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S508" t="s">
+        <v>100</v>
+      </c>
+      <c r="T508" s="8">
+        <v>13223140</v>
+      </c>
+      <c r="U508" s="8">
+        <v>8571429</v>
+      </c>
+      <c r="V508" s="8">
+        <v>6207670</v>
+      </c>
+    </row>
+    <row r="509" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
         <v>28</v>
       </c>
@@ -30900,7 +31065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
         <v>29</v>
       </c>
@@ -30959,7 +31124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>30</v>
       </c>
@@ -31018,7 +31183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>1</v>
       </c>
@@ -31077,7 +31242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
         <v>2</v>
       </c>
@@ -31135,8 +31300,20 @@
       <c r="R513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S513" t="s">
+        <v>96</v>
+      </c>
+      <c r="T513" s="8">
+        <v>12584688</v>
+      </c>
+      <c r="U513" s="8">
+        <v>9714538</v>
+      </c>
+      <c r="V513" s="8">
+        <v>5455200</v>
+      </c>
+    </row>
+    <row r="514" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>81</v>
       </c>
@@ -31195,7 +31372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>5</v>
       </c>
@@ -31254,7 +31431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
         <v>6</v>
       </c>
@@ -31313,7 +31490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
         <v>7</v>
       </c>
@@ -31372,7 +31549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
         <v>8</v>
       </c>
@@ -31431,7 +31608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
         <v>9</v>
       </c>
@@ -31490,7 +31667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
         <v>10</v>
       </c>
@@ -31549,7 +31726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
         <v>11</v>
       </c>
@@ -31608,7 +31785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
         <v>12</v>
       </c>
@@ -31667,7 +31844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
         <v>13</v>
       </c>
@@ -31726,7 +31903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
         <v>14</v>
       </c>
@@ -31784,8 +31961,20 @@
       <c r="R524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S524" t="s">
+        <v>102</v>
+      </c>
+      <c r="T524" s="8">
+        <v>14175000</v>
+      </c>
+      <c r="U524" s="8">
+        <v>13233434</v>
+      </c>
+      <c r="V524" s="8">
+        <v>10548596</v>
+      </c>
+    </row>
+    <row r="525" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
         <v>84</v>
       </c>
@@ -31844,7 +32033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
         <v>16</v>
       </c>
@@ -31903,7 +32092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
         <v>17</v>
       </c>
@@ -31962,7 +32151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
         <v>18</v>
       </c>
@@ -32021,7 +32210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
         <v>83</v>
       </c>
@@ -32080,7 +32269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
         <v>85</v>
       </c>
@@ -32139,7 +32328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
         <v>20</v>
       </c>
@@ -32198,7 +32387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
         <v>22</v>
       </c>
@@ -32257,7 +32446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
         <v>23</v>
       </c>
@@ -32316,7 +32505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
         <v>24</v>
       </c>
@@ -32375,7 +32564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
         <v>25</v>
       </c>
@@ -32434,7 +32623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
         <v>26</v>
       </c>
@@ -32493,7 +32682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A537" s="5" t="s">
         <v>27</v>
       </c>
@@ -32552,7 +32741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
         <v>86</v>
       </c>
@@ -32610,8 +32799,20 @@
       <c r="R538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S538" t="s">
+        <v>101</v>
+      </c>
+      <c r="T538" s="8">
+        <v>14625000</v>
+      </c>
+      <c r="U538" s="8">
+        <v>7792208</v>
+      </c>
+      <c r="V538" s="8">
+        <v>6191250</v>
+      </c>
+    </row>
+    <row r="539" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
         <v>28</v>
       </c>
@@ -32670,7 +32871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
         <v>29</v>
       </c>
@@ -32729,7 +32930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
         <v>30</v>
       </c>
@@ -32788,7 +32989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
         <v>1</v>
       </c>
@@ -32847,7 +33048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
         <v>2</v>
       </c>
@@ -32905,8 +33106,20 @@
       <c r="R543">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S543" t="s">
+        <v>103</v>
+      </c>
+      <c r="T543" s="8">
+        <v>13500000</v>
+      </c>
+      <c r="U543" s="8">
+        <v>11326219</v>
+      </c>
+      <c r="V543" s="8">
+        <v>8178750</v>
+      </c>
+    </row>
+    <row r="544" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
         <v>5</v>
       </c>
@@ -32965,7 +33178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
         <v>6</v>
       </c>
@@ -33024,7 +33237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
         <v>7</v>
       </c>
@@ -33083,7 +33296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
         <v>8</v>
       </c>
@@ -33142,7 +33355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A548" s="5" t="s">
         <v>9</v>
       </c>
@@ -33201,7 +33414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
         <v>10</v>
       </c>
@@ -33260,7 +33473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
         <v>11</v>
       </c>
@@ -33319,7 +33532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
         <v>12</v>
       </c>
@@ -33378,7 +33591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
         <v>13</v>
       </c>
@@ -33437,7 +33650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
         <v>14</v>
       </c>
@@ -33495,8 +33708,20 @@
       <c r="R553">
         <v>0</v>
       </c>
-    </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S553" t="s">
+        <v>98</v>
+      </c>
+      <c r="T553" s="8">
+        <v>24749999</v>
+      </c>
+      <c r="U553" s="8">
+        <v>13500000</v>
+      </c>
+      <c r="V553" s="8">
+        <v>4917000</v>
+      </c>
+    </row>
+    <row r="554" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
         <v>84</v>
       </c>
@@ -33555,7 +33780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
         <v>16</v>
       </c>
@@ -33614,7 +33839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
         <v>17</v>
       </c>
@@ -33673,7 +33898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
         <v>18</v>
       </c>
@@ -33732,7 +33957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
         <v>83</v>
       </c>
@@ -33791,7 +34016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
         <v>85</v>
       </c>
@@ -33850,7 +34075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
         <v>20</v>
       </c>
@@ -33909,7 +34134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
         <v>22</v>
       </c>
@@ -33968,7 +34193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
         <v>23</v>
       </c>
@@ -34027,7 +34252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
         <v>24</v>
       </c>
@@ -34086,7 +34311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
         <v>25</v>
       </c>
@@ -34145,7 +34370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
         <v>26</v>
       </c>
@@ -34204,7 +34429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
         <v>27</v>
       </c>
@@ -34263,7 +34488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
         <v>86</v>
       </c>
@@ -34321,8 +34546,20 @@
       <c r="R567">
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S567" t="s">
+        <v>101</v>
+      </c>
+      <c r="T567" s="8">
+        <v>13500000</v>
+      </c>
+      <c r="U567" s="8">
+        <v>7012987</v>
+      </c>
+      <c r="V567" s="8">
+        <v>5715000</v>
+      </c>
+    </row>
+    <row r="568" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
         <v>28</v>
       </c>
@@ -34381,7 +34618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
         <v>29</v>
       </c>
@@ -34440,7 +34677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
         <v>30</v>
       </c>
@@ -34499,7 +34736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
         <v>1</v>
       </c>
@@ -34558,7 +34795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
         <v>2</v>
       </c>
@@ -34616,8 +34853,20 @@
       <c r="R572">
         <v>0</v>
       </c>
-    </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S572" t="s">
+        <v>103</v>
+      </c>
+      <c r="T572" s="8">
+        <v>12375000</v>
+      </c>
+      <c r="U572" s="8">
+        <v>12375000</v>
+      </c>
+      <c r="V572" s="8">
+        <v>10067750</v>
+      </c>
+    </row>
+    <row r="573" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
         <v>5</v>
       </c>
@@ -34676,7 +34925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A574" s="1" t="s">
         <v>6</v>
       </c>
@@ -34735,7 +34984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
         <v>7</v>
       </c>
@@ -34794,7 +35043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A576" s="1" t="s">
         <v>8</v>
       </c>
@@ -34853,7 +35102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
         <v>9</v>
       </c>
@@ -34912,7 +35161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A578" s="1" t="s">
         <v>10</v>
       </c>
@@ -34971,7 +35220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A579" s="1" t="s">
         <v>11</v>
       </c>
@@ -35030,7 +35279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A580" s="1" t="s">
         <v>12</v>
       </c>
@@ -35089,7 +35338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A581" s="1" t="s">
         <v>13</v>
       </c>
@@ -35148,7 +35397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A582" s="1" t="s">
         <v>14</v>
       </c>
@@ -35206,8 +35455,20 @@
       <c r="R582">
         <v>0</v>
       </c>
-    </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S582" t="s">
+        <v>98</v>
+      </c>
+      <c r="T582" s="8">
+        <v>23571429</v>
+      </c>
+      <c r="U582" s="8">
+        <v>12375000</v>
+      </c>
+      <c r="V582" s="8">
+        <v>5300000</v>
+      </c>
+    </row>
+    <row r="583" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A583" s="1" t="s">
         <v>84</v>
       </c>
@@ -35266,7 +35527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
         <v>16</v>
       </c>
@@ -35325,7 +35586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A585" s="1" t="s">
         <v>17</v>
       </c>
@@ -35384,7 +35645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A586" s="1" t="s">
         <v>18</v>
       </c>
@@ -35443,7 +35704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A587" s="1" t="s">
         <v>83</v>
       </c>
@@ -35502,7 +35763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A588" s="1" t="s">
         <v>85</v>
       </c>
@@ -35561,7 +35822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
         <v>20</v>
       </c>
@@ -35620,7 +35881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A590" s="1" t="s">
         <v>22</v>
       </c>
@@ -35679,7 +35940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A591" s="1" t="s">
         <v>23</v>
       </c>
@@ -35738,7 +35999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
         <v>24</v>
       </c>
@@ -35797,7 +36058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A593" s="1" t="s">
         <v>25</v>
       </c>
@@ -35856,7 +36117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
         <v>26</v>
       </c>
@@ -35915,7 +36176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A595" s="5" t="s">
         <v>27</v>
       </c>
@@ -35974,7 +36235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A596" s="1" t="s">
         <v>86</v>
       </c>
@@ -36032,8 +36293,20 @@
       <c r="R596">
         <v>0</v>
       </c>
-    </row>
-    <row r="597" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S596" t="s">
+        <v>101</v>
+      </c>
+      <c r="T596" s="8">
+        <v>12636117</v>
+      </c>
+      <c r="U596" s="8">
+        <v>9185000</v>
+      </c>
+      <c r="V596" s="8">
+        <v>6233766</v>
+      </c>
+    </row>
+    <row r="597" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
         <v>28</v>
       </c>
@@ -36092,7 +36365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
         <v>29</v>
       </c>
@@ -36151,7 +36424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A599" s="1" t="s">
         <v>30</v>
       </c>
@@ -36210,7 +36483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A600" s="1" t="s">
         <v>1</v>
       </c>
@@ -36269,7 +36542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A601" s="1" t="s">
         <v>2</v>
       </c>
@@ -36327,8 +36600,20 @@
       <c r="R601">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S601" t="s">
+        <v>103</v>
+      </c>
+      <c r="T601" s="8">
+        <v>11250000</v>
+      </c>
+      <c r="U601" s="8">
+        <v>8350000</v>
+      </c>
+      <c r="V601" s="8">
+        <v>4762500</v>
+      </c>
+    </row>
+    <row r="602" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A602" s="1" t="s">
         <v>81</v>
       </c>
@@ -36387,7 +36672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A603" s="1" t="s">
         <v>5</v>
       </c>
@@ -36446,7 +36731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A604" s="1" t="s">
         <v>6</v>
       </c>
@@ -36505,7 +36790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A605" s="1" t="s">
         <v>7</v>
       </c>
@@ -36564,7 +36849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A606" s="1" t="s">
         <v>8</v>
       </c>
@@ -36623,7 +36908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A607" s="1" t="s">
         <v>9</v>
       </c>
@@ -36682,7 +36967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A608" s="1" t="s">
         <v>10</v>
       </c>
@@ -36741,7 +37026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A609" s="1" t="s">
         <v>11</v>
       </c>
@@ -36800,7 +37085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A610" s="1" t="s">
         <v>12</v>
       </c>
@@ -36859,7 +37144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A611" s="1" t="s">
         <v>13</v>
       </c>
@@ -36918,7 +37203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A612" s="5" t="s">
         <v>14</v>
       </c>
@@ -36976,8 +37261,20 @@
       <c r="R612">
         <v>0</v>
       </c>
-    </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S612" t="s">
+        <v>98</v>
+      </c>
+      <c r="T612" s="8">
+        <v>21428572</v>
+      </c>
+      <c r="U612" s="8">
+        <v>11250000</v>
+      </c>
+      <c r="V612" s="8">
+        <v>5300000</v>
+      </c>
+    </row>
+    <row r="613" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A613" s="1" t="s">
         <v>84</v>
       </c>
@@ -37036,7 +37333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A614" s="1" t="s">
         <v>16</v>
       </c>
@@ -37095,7 +37392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A615" s="1" t="s">
         <v>17</v>
       </c>
@@ -37154,7 +37451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A616" s="1" t="s">
         <v>18</v>
       </c>
@@ -37213,7 +37510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A617" s="1" t="s">
         <v>83</v>
       </c>
@@ -37272,7 +37569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A618" s="1" t="s">
         <v>20</v>
       </c>
@@ -37331,7 +37628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
         <v>22</v>
       </c>
@@ -37390,7 +37687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A620" s="1" t="s">
         <v>23</v>
       </c>
@@ -37449,7 +37746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A621" s="1" t="s">
         <v>24</v>
       </c>
@@ -37508,7 +37805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A622" s="1" t="s">
         <v>25</v>
       </c>
@@ -37567,7 +37864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A623" s="1" t="s">
         <v>26</v>
       </c>
@@ -37626,7 +37923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A624" s="1" t="s">
         <v>27</v>
       </c>
@@ -37685,7 +37982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A625" s="1" t="s">
         <v>86</v>
       </c>
@@ -37743,8 +38040,20 @@
       <c r="R625">
         <v>0</v>
       </c>
-    </row>
-    <row r="626" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S625" t="s">
+        <v>101</v>
+      </c>
+      <c r="T625" s="8">
+        <v>12926493</v>
+      </c>
+      <c r="U625" s="8">
+        <v>11250000</v>
+      </c>
+      <c r="V625" s="8">
+        <v>4680000</v>
+      </c>
+    </row>
+    <row r="626" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A626" s="1" t="s">
         <v>28</v>
       </c>
@@ -37803,7 +38112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A627" s="1" t="s">
         <v>29</v>
       </c>
@@ -37862,7 +38171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A628" s="1" t="s">
         <v>30</v>
       </c>
@@ -37921,7 +38230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A629" s="1" t="s">
         <v>1</v>
       </c>
@@ -37980,7 +38289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A630" s="1" t="s">
         <v>2</v>
       </c>
@@ -38038,8 +38347,20 @@
       <c r="R630">
         <v>0</v>
       </c>
-    </row>
-    <row r="631" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S630" t="s">
+        <v>104</v>
+      </c>
+      <c r="T630" s="8">
+        <v>10130000</v>
+      </c>
+      <c r="U630" s="8">
+        <v>7520000</v>
+      </c>
+      <c r="V630" s="8">
+        <v>5920000</v>
+      </c>
+    </row>
+    <row r="631" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A631" s="1" t="s">
         <v>81</v>
       </c>
@@ -38098,7 +38419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A632" s="1" t="s">
         <v>5</v>
       </c>
@@ -38157,7 +38478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A633" s="1" t="s">
         <v>6</v>
       </c>
@@ -38216,7 +38537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A634" s="1" t="s">
         <v>7</v>
       </c>
@@ -38275,7 +38596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A635" s="1" t="s">
         <v>8</v>
       </c>
@@ -38334,7 +38655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A636" s="1" t="s">
         <v>9</v>
       </c>
@@ -38393,7 +38714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A637" s="1" t="s">
         <v>10</v>
       </c>
@@ -38452,7 +38773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A638" s="1" t="s">
         <v>11</v>
       </c>
@@ -38511,7 +38832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A639" s="1" t="s">
         <v>12</v>
       </c>
@@ -38570,7 +38891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A640" s="1" t="s">
         <v>13</v>
       </c>
@@ -38629,7 +38950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A641" s="5" t="s">
         <v>14</v>
       </c>
@@ -38687,8 +39008,20 @@
       <c r="R641">
         <v>0</v>
       </c>
-    </row>
-    <row r="642" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S641" t="s">
+        <v>98</v>
+      </c>
+      <c r="T641" s="8">
+        <v>19285715</v>
+      </c>
+      <c r="U641" s="8">
+        <v>10130000</v>
+      </c>
+      <c r="V641" s="8">
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="642" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A642" s="1" t="s">
         <v>16</v>
       </c>
@@ -38747,7 +39080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A643" s="1" t="s">
         <v>17</v>
       </c>
@@ -38806,7 +39139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A644" s="1" t="s">
         <v>18</v>
       </c>
@@ -38865,7 +39198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A645" s="1" t="s">
         <v>83</v>
       </c>
@@ -38924,7 +39257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A646" s="1" t="s">
         <v>20</v>
       </c>
@@ -38983,7 +39316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A647" s="1" t="s">
         <v>22</v>
       </c>
@@ -39042,7 +39375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A648" s="1" t="s">
         <v>23</v>
       </c>
@@ -39101,7 +39434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A649" s="1" t="s">
         <v>24</v>
       </c>
@@ -39160,7 +39493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A650" s="1" t="s">
         <v>25</v>
       </c>
@@ -39219,7 +39552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A651" s="1" t="s">
         <v>26</v>
       </c>
@@ -39278,7 +39611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A652" s="1" t="s">
         <v>27</v>
       </c>
@@ -39337,7 +39670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A653" s="1" t="s">
         <v>86</v>
       </c>
@@ -39395,8 +39728,20 @@
       <c r="R653">
         <v>0</v>
       </c>
-    </row>
-    <row r="654" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S653" t="s">
+        <v>101</v>
+      </c>
+      <c r="T653" s="8">
+        <v>14000000</v>
+      </c>
+      <c r="U653" s="8">
+        <v>12200000</v>
+      </c>
+      <c r="V653" s="8">
+        <v>10130000</v>
+      </c>
+    </row>
+    <row r="654" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A654" s="1" t="s">
         <v>28</v>
       </c>
@@ -39455,7 +39800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A655" s="1" t="s">
         <v>29</v>
       </c>
@@ -39514,7 +39859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A656" s="1" t="s">
         <v>84</v>
       </c>
@@ -39573,7 +39918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A657" s="1" t="s">
         <v>30</v>
       </c>
@@ -39632,7 +39977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A658" s="1" t="s">
         <v>1</v>
       </c>
@@ -39691,7 +40036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A659" s="1" t="s">
         <v>2</v>
       </c>
@@ -39749,8 +40094,20 @@
       <c r="R659">
         <v>0</v>
       </c>
-    </row>
-    <row r="660" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S659" t="s">
+        <v>104</v>
+      </c>
+      <c r="T659" s="8">
+        <v>9000000</v>
+      </c>
+      <c r="U659" s="8">
+        <v>6680000</v>
+      </c>
+      <c r="V659" s="8">
+        <v>3810000</v>
+      </c>
+    </row>
+    <row r="660" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A660" s="1" t="s">
         <v>81</v>
       </c>
@@ -39809,7 +40166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A661" s="1" t="s">
         <v>5</v>
       </c>
@@ -39868,7 +40225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A662" s="1" t="s">
         <v>6</v>
       </c>
@@ -39927,7 +40284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A663" s="1" t="s">
         <v>7</v>
       </c>
@@ -39986,7 +40343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A664" s="1" t="s">
         <v>8</v>
       </c>
@@ -40045,7 +40402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A665" s="1" t="s">
         <v>9</v>
       </c>
@@ -40104,7 +40461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A666" s="1" t="s">
         <v>10</v>
       </c>
@@ -40163,7 +40520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A667" s="1" t="s">
         <v>11</v>
       </c>
@@ -40222,7 +40579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A668" s="1" t="s">
         <v>12</v>
       </c>
@@ -40281,7 +40638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A669" s="1" t="s">
         <v>13</v>
       </c>
@@ -40340,7 +40697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A670" s="5" t="s">
         <v>14</v>
       </c>
@@ -40398,8 +40755,20 @@
       <c r="R670">
         <v>0</v>
       </c>
-    </row>
-    <row r="671" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S670" t="s">
+        <v>98</v>
+      </c>
+      <c r="T670" s="8">
+        <v>17142858</v>
+      </c>
+      <c r="U670" s="8">
+        <v>9000000</v>
+      </c>
+      <c r="V670" s="8">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="671" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A671" s="1" t="s">
         <v>16</v>
       </c>
@@ -40458,7 +40827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A672" s="1" t="s">
         <v>17</v>
       </c>
@@ -40517,7 +40886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A673" s="1" t="s">
         <v>18</v>
       </c>
@@ -40576,7 +40945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A674" s="1" t="s">
         <v>83</v>
       </c>
@@ -40635,7 +41004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A675" s="1" t="s">
         <v>20</v>
       </c>
@@ -40694,7 +41063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A676" s="1" t="s">
         <v>22</v>
       </c>
@@ -40753,7 +41122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A677" s="1" t="s">
         <v>23</v>
       </c>
@@ -40812,7 +41181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A678" s="1" t="s">
         <v>24</v>
       </c>
@@ -40871,7 +41240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A679" s="1" t="s">
         <v>25</v>
       </c>
@@ -40930,7 +41299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A680" s="1" t="s">
         <v>26</v>
       </c>
@@ -40989,7 +41358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A681" s="1" t="s">
         <v>27</v>
       </c>
@@ -41048,7 +41417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A682" s="1" t="s">
         <v>86</v>
       </c>
@@ -41106,8 +41475,20 @@
       <c r="R682">
         <v>0</v>
       </c>
-    </row>
-    <row r="683" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S682" t="s">
+        <v>105</v>
+      </c>
+      <c r="T682" s="8">
+        <v>11020473</v>
+      </c>
+      <c r="U682" s="8">
+        <v>9000000</v>
+      </c>
+      <c r="V682" s="8">
+        <v>5952381</v>
+      </c>
+    </row>
+    <row r="683" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A683" s="1" t="s">
         <v>28</v>
       </c>
@@ -41166,7 +41547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A684" s="1" t="s">
         <v>29</v>
       </c>
@@ -41225,7 +41606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A685" s="1" t="s">
         <v>84</v>
       </c>
@@ -41284,7 +41665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A686" s="1" t="s">
         <v>30</v>
       </c>
@@ -41343,7 +41724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C687" s="3"/>
       <c r="G687" s="3"/>
     </row>
